--- a/data_year/zb/批发和零售业/连锁零售企业/按登记注册类型分连锁零售企业商品销售额.xlsx
+++ b/data_year/zb/批发和零售业/连锁零售企业/按登记注册类型分连锁零售企业商品销售额.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AG20"/>
+  <dimension ref="A1:AG13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -598,1822 +598,1189 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2002年</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
+          <t>2010年</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>221.8186</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1572.6916</v>
+      </c>
       <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
+      <c r="E2" t="n">
+        <v>3833.9176</v>
+      </c>
       <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="inlineStr"/>
-      <c r="O2" t="inlineStr"/>
-      <c r="P2" t="inlineStr"/>
-      <c r="Q2" t="inlineStr"/>
-      <c r="R2" t="inlineStr"/>
-      <c r="S2" t="inlineStr"/>
-      <c r="T2" t="inlineStr"/>
-      <c r="U2" t="inlineStr"/>
-      <c r="V2" t="inlineStr"/>
-      <c r="W2" t="inlineStr"/>
-      <c r="X2" t="inlineStr"/>
-      <c r="Y2" t="inlineStr"/>
-      <c r="Z2" t="inlineStr"/>
-      <c r="AA2" t="inlineStr"/>
-      <c r="AB2" t="inlineStr"/>
-      <c r="AC2" t="inlineStr"/>
-      <c r="AD2" t="inlineStr"/>
+      <c r="G2" t="n">
+        <v>2.7481</v>
+      </c>
+      <c r="H2" t="n">
+        <v>28.335</v>
+      </c>
+      <c r="I2" t="n">
+        <v>23324.631</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.08690000000000001</v>
+      </c>
+      <c r="K2" t="n">
+        <v>71.41679999999999</v>
+      </c>
+      <c r="L2" t="n">
+        <v>17.4342</v>
+      </c>
+      <c r="M2" t="n">
+        <v>3643.5355</v>
+      </c>
+      <c r="N2" t="n">
+        <v>6.0807</v>
+      </c>
+      <c r="O2" t="n">
+        <v>2480.6181</v>
+      </c>
+      <c r="P2" t="n">
+        <v>680.0272</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>3905.3343</v>
+      </c>
+      <c r="R2" t="n">
+        <v>655.925</v>
+      </c>
+      <c r="S2" t="n">
+        <v>320.284</v>
+      </c>
+      <c r="T2" t="n">
+        <v>13.83</v>
+      </c>
+      <c r="U2" t="n">
+        <v>1580.177</v>
+      </c>
+      <c r="V2" t="n">
+        <v>590.138</v>
+      </c>
+      <c r="W2" t="n">
+        <v>14.2521</v>
+      </c>
+      <c r="X2" t="n">
+        <v>1123.1049</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>19.8032</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>275.4275</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>1432.5877</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>20.2693</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>36.1022</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>14207.5065</v>
+      </c>
       <c r="AE2" t="n">
-        <v>2658.2833</v>
+        <v>27385.4261</v>
       </c>
       <c r="AF2" t="inlineStr"/>
-      <c r="AG2" t="inlineStr"/>
+      <c r="AG2" t="n">
+        <v>50.9605</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2003年</t>
+          <t>2011年</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>256.5876</v>
+        <v>241.62765</v>
       </c>
       <c r="C3" t="n">
-        <v>199.9318</v>
+        <v>1914.85592</v>
       </c>
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="n">
-        <v>939.3175</v>
-      </c>
-      <c r="F3" t="inlineStr"/>
+        <v>4777.5102</v>
+      </c>
+      <c r="F3" t="n">
+        <v>344.18366</v>
+      </c>
       <c r="G3" t="n">
-        <v>2.4343</v>
+        <v>3.08205</v>
       </c>
       <c r="H3" t="n">
-        <v>6.1909</v>
+        <v>143.85233</v>
       </c>
       <c r="I3" t="n">
-        <v>3527.4892</v>
+        <v>29530.13827</v>
       </c>
       <c r="J3" t="n">
-        <v>85.7778</v>
+        <v>0.07964</v>
       </c>
       <c r="K3" t="n">
-        <v>58.0956</v>
+        <v>44.88997</v>
       </c>
       <c r="L3" t="n">
-        <v>2.2192</v>
+        <v>3.79963</v>
       </c>
       <c r="M3" t="n">
-        <v>375.0154</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+        <v>4600.52395</v>
+      </c>
+      <c r="N3" t="n">
+        <v>6.61319</v>
+      </c>
       <c r="O3" t="n">
-        <v>462.442</v>
+        <v>2902.60383</v>
       </c>
       <c r="P3" t="n">
-        <v>5.9226</v>
+        <v>739.50707</v>
       </c>
       <c r="Q3" t="n">
-        <v>1017.0171</v>
+        <v>4822.40017</v>
       </c>
       <c r="R3" t="n">
-        <v>30.1948</v>
+        <v>636.84772</v>
       </c>
       <c r="S3" t="n">
-        <v>225.7989</v>
-      </c>
-      <c r="T3" t="n">
-        <v>1.4368</v>
-      </c>
+        <v>371.63175</v>
+      </c>
+      <c r="T3" t="inlineStr"/>
       <c r="U3" t="n">
-        <v>265.0428</v>
+        <v>2077.95058</v>
       </c>
       <c r="V3" t="n">
-        <v>2.1607</v>
+        <v>725.28745</v>
       </c>
       <c r="W3" t="n">
-        <v>0.5535</v>
+        <v>25.96282</v>
       </c>
       <c r="X3" t="n">
-        <v>601.1892</v>
+        <v>1338.04413</v>
       </c>
       <c r="Y3" t="n">
-        <v>12.2162</v>
+        <v>15.23469</v>
       </c>
       <c r="Z3" t="n">
-        <v>35.24</v>
+        <v>237.17175</v>
       </c>
       <c r="AA3" t="n">
-        <v>667.4166</v>
+        <v>1616.41339</v>
       </c>
       <c r="AB3" t="n">
-        <v>90.4314</v>
+        <v>6.96132</v>
       </c>
       <c r="AC3" t="n">
-        <v>26.8863</v>
+        <v>28.09643</v>
       </c>
       <c r="AD3" t="n">
-        <v>1306.7449</v>
+        <v>18261.0276</v>
       </c>
       <c r="AE3" t="n">
-        <v>4258.6343</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>0</v>
-      </c>
+        <v>34510.69268</v>
+      </c>
+      <c r="AF3" t="inlineStr"/>
       <c r="AG3" t="n">
-        <v>37.7867</v>
+        <v>50.86308</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2004年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>323.5355</v>
+        <v>225.22971</v>
       </c>
       <c r="C4" t="n">
-        <v>267.8955</v>
+        <v>2038.71598</v>
       </c>
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="n">
-        <v>1202.8422</v>
-      </c>
-      <c r="F4" t="inlineStr"/>
+        <v>5056.42152</v>
+      </c>
+      <c r="F4" t="n">
+        <v>379.93642</v>
+      </c>
       <c r="G4" t="n">
-        <v>2.0188</v>
+        <v>4.46539</v>
       </c>
       <c r="H4" t="n">
-        <v>6.4475</v>
+        <v>63.91301</v>
       </c>
       <c r="I4" t="n">
-        <v>4636.5634</v>
+        <v>30107.72716</v>
       </c>
       <c r="J4" t="n">
-        <v>128.2658</v>
+        <v>0.08326</v>
       </c>
       <c r="K4" t="n">
-        <v>73.37430000000001</v>
+        <v>57.49097</v>
       </c>
       <c r="L4" t="n">
-        <v>2.4983</v>
+        <v>8.460520000000001</v>
       </c>
       <c r="M4" t="n">
-        <v>504.4732</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+        <v>4849.80428</v>
+      </c>
+      <c r="N4" t="n">
+        <v>5.37264</v>
+      </c>
       <c r="O4" t="n">
-        <v>600.3559</v>
+        <v>2977.86034</v>
       </c>
       <c r="P4" t="n">
-        <v>8.924899999999999</v>
+        <v>708.54201</v>
       </c>
       <c r="Q4" t="n">
-        <v>1305.668</v>
+        <v>5113.91249</v>
       </c>
       <c r="R4" t="n">
-        <v>44.7801</v>
+        <v>691.61086</v>
       </c>
       <c r="S4" t="n">
-        <v>284.6011</v>
+        <v>377.47298</v>
       </c>
       <c r="T4" t="n">
-        <v>3.3563</v>
+        <v>7.77719</v>
       </c>
       <c r="U4" t="n">
-        <v>339.5424</v>
+        <v>2376.48913</v>
       </c>
       <c r="V4" t="n">
-        <v>2.3973</v>
+        <v>919.69168</v>
       </c>
       <c r="W4" t="n">
-        <v>0.6528</v>
+        <v>21.36068</v>
       </c>
       <c r="X4" t="n">
-        <v>772.4855</v>
+        <v>1461.13062</v>
       </c>
       <c r="Y4" t="n">
-        <v>14.6876</v>
+        <v>26.87416</v>
       </c>
       <c r="Z4" t="n">
-        <v>45.4374</v>
+        <v>136.60936</v>
       </c>
       <c r="AA4" t="n">
-        <v>858.9672</v>
+        <v>1645.97482</v>
       </c>
       <c r="AB4" t="n">
-        <v>132.7829</v>
+        <v>13.00917</v>
       </c>
       <c r="AC4" t="n">
-        <v>26.8053</v>
+        <v>122.96027</v>
       </c>
       <c r="AD4" t="n">
-        <v>1752.6977</v>
+        <v>18232.36823</v>
       </c>
       <c r="AE4" t="n">
-        <v>8393.6</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>0</v>
-      </c>
+        <v>35462.07663</v>
+      </c>
+      <c r="AF4" t="inlineStr"/>
       <c r="AG4" t="n">
-        <v>48.7216</v>
+        <v>65.78489</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
+          <t>2013年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>508.4885</v>
+        <v>255.8747</v>
       </c>
       <c r="C5" t="n">
-        <v>550.449</v>
-      </c>
-      <c r="D5" t="inlineStr"/>
+        <v>2113.1897</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.2451</v>
+      </c>
       <c r="E5" t="n">
-        <v>1877.6908</v>
-      </c>
-      <c r="F5" t="inlineStr"/>
+        <v>5790.2901</v>
+      </c>
+      <c r="F5" t="n">
+        <v>239.1427</v>
+      </c>
       <c r="G5" t="n">
-        <v>1.8345</v>
+        <v>3.7282</v>
       </c>
       <c r="H5" t="n">
-        <v>7.8266</v>
+        <v>55.5938</v>
       </c>
       <c r="I5" t="n">
-        <v>10864.7114</v>
+        <v>32368.031</v>
       </c>
       <c r="J5" t="n">
-        <v>133.058</v>
+        <v>0.09180000000000001</v>
       </c>
       <c r="K5" t="n">
-        <v>70.8811</v>
+        <v>90.8451</v>
       </c>
       <c r="L5" t="n">
-        <v>7.8661</v>
+        <v>8.6525</v>
       </c>
       <c r="M5" t="n">
-        <v>1900.4132</v>
+        <v>5110.2501</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>2.0587</v>
       </c>
       <c r="O5" t="n">
-        <v>1120.0972</v>
+        <v>3118.828</v>
       </c>
       <c r="P5" t="n">
-        <v>61.1596</v>
+        <v>747.4598</v>
       </c>
       <c r="Q5" t="n">
-        <v>1948.5719</v>
+        <v>5881.1352</v>
       </c>
       <c r="R5" t="n">
-        <v>19.4373</v>
+        <v>802.2433</v>
       </c>
       <c r="S5" t="n">
-        <v>466.044</v>
+        <v>423.5732</v>
       </c>
       <c r="T5" t="n">
-        <v>33.519</v>
+        <v>21.6927</v>
       </c>
       <c r="U5" t="n">
-        <v>602.9704</v>
+        <v>2520.012</v>
       </c>
       <c r="V5" t="n">
-        <v>83.9701</v>
+        <v>1033.3602</v>
       </c>
       <c r="W5" t="n">
-        <v>19.5382</v>
+        <v>22.5791</v>
       </c>
       <c r="X5" t="n">
-        <v>869.0701</v>
+        <v>1679.6867</v>
       </c>
       <c r="Y5" t="n">
-        <v>32.879</v>
+        <v>26.2511</v>
       </c>
       <c r="Z5" t="n">
-        <v>52.6547</v>
+        <v>373.9121</v>
       </c>
       <c r="AA5" t="n">
-        <v>974.1420000000001</v>
+        <v>2102.429</v>
       </c>
       <c r="AB5" t="n">
-        <v>146.0767</v>
+        <v>12.4724</v>
       </c>
       <c r="AC5" t="n">
-        <v>81.3342</v>
+        <v>114.9908</v>
       </c>
       <c r="AD5" t="n">
-        <v>5780.653</v>
+        <v>18985.4245</v>
       </c>
       <c r="AE5" t="n">
-        <v>10668.3746</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>3.3181</v>
-      </c>
+        <v>38006.871</v>
+      </c>
+      <c r="AF5" t="inlineStr"/>
       <c r="AG5" t="n">
-        <v>25.6938</v>
+        <v>105.7352</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2006年</t>
+          <t>2014年</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>511.6805</v>
+        <v>275.5756</v>
       </c>
       <c r="C6" t="n">
-        <v>877.8555</v>
-      </c>
-      <c r="D6" t="inlineStr"/>
+        <v>2109.3929</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.312</v>
+      </c>
       <c r="E6" t="n">
-        <v>1962.3825</v>
-      </c>
-      <c r="F6" t="inlineStr"/>
+        <v>5730.2497</v>
+      </c>
+      <c r="F6" t="n">
+        <v>338.5201</v>
+      </c>
       <c r="G6" t="n">
-        <v>1.0701</v>
+        <v>3.2074</v>
       </c>
       <c r="H6" t="n">
-        <v>20.6894</v>
+        <v>54.4541</v>
       </c>
       <c r="I6" t="n">
-        <v>12924.7276</v>
+        <v>31775.6055</v>
       </c>
       <c r="J6" t="n">
-        <v>123.7262</v>
+        <v>0.0814</v>
       </c>
       <c r="K6" t="n">
-        <v>233.4397</v>
+        <v>80.8386</v>
       </c>
       <c r="L6" t="n">
-        <v>10.073</v>
+        <v>6.0226</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.4581</v>
+        <v>4630.299</v>
       </c>
       <c r="N6" t="n">
-        <v>0.6729000000000001</v>
+        <v>2.3856</v>
       </c>
       <c r="O6" t="n">
-        <v>1588.3967</v>
+        <v>3244.3037</v>
       </c>
       <c r="P6" t="n">
-        <v>198.1879</v>
+        <v>856.6376</v>
       </c>
       <c r="Q6" t="n">
-        <v>2195.8222</v>
+        <v>5811.0883</v>
       </c>
       <c r="R6" t="n">
-        <v>17.451</v>
+        <v>420.3</v>
       </c>
       <c r="S6" t="n">
-        <v>310.4336</v>
+        <v>449.9363</v>
       </c>
       <c r="T6" t="n">
-        <v>1.758</v>
+        <v>20.7072</v>
       </c>
       <c r="U6" t="n">
-        <v>439.0565</v>
+        <v>2320.6987</v>
       </c>
       <c r="V6" t="n">
-        <v>109.4139</v>
+        <v>1091.235</v>
       </c>
       <c r="W6" t="n">
-        <v>25.3389</v>
+        <v>23.1376</v>
       </c>
       <c r="X6" t="n">
-        <v>1073.755</v>
+        <v>2079.7962</v>
       </c>
       <c r="Y6" t="n">
-        <v>34.8139</v>
+        <v>36.3769</v>
       </c>
       <c r="Z6" t="n">
-        <v>93.77509999999999</v>
+        <v>400.7607</v>
       </c>
       <c r="AA6" t="n">
-        <v>1227.6829</v>
+        <v>2540.0714</v>
       </c>
       <c r="AB6" t="n">
-        <v>134.9746</v>
+        <v>9.311400000000001</v>
       </c>
       <c r="AC6" t="n">
-        <v>15.2137</v>
+        <v>123.7698</v>
       </c>
       <c r="AD6" t="n">
-        <v>7983.5142</v>
+        <v>18513.2129</v>
       </c>
       <c r="AE6" t="n">
-        <v>15548.8977</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>1.1754</v>
-      </c>
+        <v>37340.6078</v>
+      </c>
+      <c r="AF6" t="inlineStr"/>
       <c r="AG6" t="n">
-        <v>33.3725</v>
+        <v>93.3986</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>406.76366</v>
+        <v>177.7493</v>
       </c>
       <c r="C7" t="n">
-        <v>1179.74014</v>
-      </c>
-      <c r="D7" t="inlineStr"/>
+        <v>1879.7547</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1.7766</v>
+      </c>
       <c r="E7" t="n">
-        <v>2717.41007</v>
-      </c>
-      <c r="F7" t="inlineStr"/>
+        <v>6183.2981</v>
+      </c>
+      <c r="F7" t="n">
+        <v>421.448</v>
+      </c>
       <c r="G7" t="n">
-        <v>1.92452</v>
+        <v>3.4023</v>
       </c>
       <c r="H7" t="n">
-        <v>16.95128</v>
+        <v>66.6232</v>
       </c>
       <c r="I7" t="n">
-        <v>14314.93967</v>
+        <v>29195.9922</v>
       </c>
       <c r="J7" t="n">
-        <v>0.04582</v>
+        <v>0.08359999999999999</v>
       </c>
       <c r="K7" t="n">
-        <v>124.78448</v>
+        <v>68.3554</v>
       </c>
       <c r="L7" t="n">
-        <v>10.83433</v>
+        <v>5.4556</v>
       </c>
       <c r="M7" t="n">
-        <v>2024.69997</v>
+        <v>4174.9642</v>
       </c>
       <c r="N7" t="n">
-        <v>0.91715</v>
+        <v>53.9304</v>
       </c>
       <c r="O7" t="n">
-        <v>2008.40298</v>
+        <v>3607.1761</v>
       </c>
       <c r="P7" t="n">
-        <v>420.98203</v>
+        <v>1493.9651</v>
       </c>
       <c r="Q7" t="n">
-        <v>2842.19455</v>
+        <v>6251.6534</v>
       </c>
       <c r="R7" t="n">
-        <v>24.66041</v>
+        <v>444.1895</v>
       </c>
       <c r="S7" t="n">
-        <v>306.16003</v>
+        <v>446.7733</v>
       </c>
       <c r="T7" t="n">
-        <v>2.74232</v>
+        <v>23.8763</v>
       </c>
       <c r="U7" t="n">
-        <v>608.13069</v>
+        <v>2597.2331</v>
       </c>
       <c r="V7" t="n">
-        <v>274.56793</v>
+        <v>1260.946</v>
       </c>
       <c r="W7" t="n">
-        <v>13.02355</v>
+        <v>22.7498</v>
       </c>
       <c r="X7" t="n">
-        <v>889.42393</v>
+        <v>1944.68</v>
       </c>
       <c r="Y7" t="n">
-        <v>24.85157</v>
+        <v>42.691</v>
       </c>
       <c r="Z7" t="n">
-        <v>57.01978</v>
+        <v>400.6767</v>
       </c>
       <c r="AA7" t="n">
-        <v>984.31883</v>
+        <v>2410.7975</v>
       </c>
       <c r="AB7" t="n">
-        <v>13.2343</v>
+        <v>8.9415</v>
       </c>
       <c r="AC7" t="n">
-        <v>20.26312</v>
+        <v>112.1631</v>
       </c>
       <c r="AD7" t="n">
-        <v>8337.515670000001</v>
+        <v>16073.2639</v>
       </c>
       <c r="AE7" t="n">
-        <v>17754.3447</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>0.42963</v>
-      </c>
+        <v>35400.4014</v>
+      </c>
+      <c r="AF7" t="inlineStr"/>
       <c r="AG7" t="n">
-        <v>75.76195</v>
+        <v>97.5855</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
+          <t>2016年</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>496.9149</v>
+        <v>173.1971</v>
       </c>
       <c r="C8" t="n">
-        <v>1495.5952</v>
+        <v>1813.1951</v>
       </c>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="n">
-        <v>3259.77337</v>
-      </c>
-      <c r="F8" t="inlineStr"/>
+        <v>6566.5205</v>
+      </c>
+      <c r="F8" t="n">
+        <v>492.2199</v>
+      </c>
       <c r="G8" t="n">
-        <v>2.26117</v>
+        <v>2.7542</v>
       </c>
       <c r="H8" t="n">
-        <v>18.78607</v>
+        <v>54.2483</v>
       </c>
       <c r="I8" t="n">
-        <v>17242.5975</v>
+        <v>29514.6257</v>
       </c>
       <c r="J8" t="n">
-        <v>0.06231</v>
+        <v>0.09320000000000001</v>
       </c>
       <c r="K8" t="n">
-        <v>136.00948</v>
+        <v>690.3049999999999</v>
       </c>
       <c r="L8" t="n">
-        <v>11.88469</v>
+        <v>6.6565</v>
       </c>
       <c r="M8" t="n">
-        <v>2511.25781</v>
+        <v>3902.7514</v>
       </c>
       <c r="N8" t="n">
-        <v>8.2591</v>
+        <v>72.74079999999999</v>
       </c>
       <c r="O8" t="n">
-        <v>2496.70309</v>
+        <v>3743.4</v>
       </c>
       <c r="P8" t="n">
-        <v>495.93389</v>
+        <v>1684.267</v>
       </c>
       <c r="Q8" t="n">
-        <v>3395.78285</v>
+        <v>7256.8255</v>
       </c>
       <c r="R8" t="n">
-        <v>30.31248</v>
+        <v>417.4723</v>
       </c>
       <c r="S8" t="n">
-        <v>351.22607</v>
+        <v>451.3475</v>
       </c>
       <c r="T8" t="n">
-        <v>1.65012</v>
+        <v>22.6138</v>
       </c>
       <c r="U8" t="n">
-        <v>727.22686</v>
+        <v>2664.8679</v>
       </c>
       <c r="V8" t="n">
-        <v>344.03819</v>
+        <v>1281.2144</v>
       </c>
       <c r="W8" t="n">
-        <v>16.21566</v>
+        <v>21.5338</v>
       </c>
       <c r="X8" t="n">
-        <v>1075.2739</v>
+        <v>2079.1077</v>
       </c>
       <c r="Y8" t="n">
-        <v>29.41456</v>
+        <v>37.6447</v>
       </c>
       <c r="Z8" t="n">
-        <v>88.65939</v>
+        <v>420.3869</v>
       </c>
       <c r="AA8" t="n">
-        <v>1209.56351</v>
+        <v>2558.673</v>
       </c>
       <c r="AB8" t="n">
-        <v>14.4366</v>
+        <v>9.5039</v>
       </c>
       <c r="AC8" t="n">
-        <v>30.03599</v>
+        <v>113.5253</v>
       </c>
       <c r="AD8" t="n">
-        <v>9979.649230000001</v>
+        <v>15520.7489</v>
       </c>
       <c r="AE8" t="n">
-        <v>20466.52745</v>
-      </c>
-      <c r="AF8" t="n">
-        <v>0.22843</v>
-      </c>
+        <v>35922.8936</v>
+      </c>
+      <c r="AF8" t="inlineStr"/>
       <c r="AG8" t="n">
-        <v>83.08544000000001</v>
+        <v>98.3494</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>211.5711</v>
+        <v>115.2938</v>
       </c>
       <c r="C9" t="n">
-        <v>1359.8697</v>
-      </c>
-      <c r="D9" t="inlineStr"/>
+        <v>1879.7431</v>
+      </c>
+      <c r="D9" t="n">
+        <v>9.6898</v>
+      </c>
       <c r="E9" t="n">
-        <v>3128.6235</v>
-      </c>
-      <c r="F9" t="inlineStr"/>
+        <v>7553.8022</v>
+      </c>
+      <c r="F9" t="n">
+        <v>534.5282999999999</v>
+      </c>
       <c r="G9" t="n">
-        <v>25.7</v>
+        <v>3.035</v>
       </c>
       <c r="H9" t="n">
-        <v>13.3513</v>
+        <v>57.3375</v>
       </c>
       <c r="I9" t="n">
-        <v>18602.7179</v>
+        <v>29323.8244</v>
       </c>
       <c r="J9" t="n">
-        <v>0.0867</v>
+        <v>0.0973</v>
       </c>
       <c r="K9" t="n">
-        <v>60.7133</v>
+        <v>749.1019</v>
       </c>
       <c r="L9" t="n">
-        <v>5.629</v>
+        <v>7.3674</v>
       </c>
       <c r="M9" t="n">
-        <v>2400.4449</v>
+        <v>3835.9086</v>
       </c>
       <c r="N9" t="n">
-        <v>12.8408</v>
+        <v>75.7243</v>
       </c>
       <c r="O9" t="n">
-        <v>2319.9474</v>
+        <v>3698.6137</v>
       </c>
       <c r="P9" t="n">
-        <v>735.6658</v>
+        <v>1618.1627</v>
       </c>
       <c r="Q9" t="n">
-        <v>3189.3368</v>
+        <v>8302.9041</v>
       </c>
       <c r="R9" t="n">
-        <v>488.9557</v>
+        <v>444.8063</v>
       </c>
       <c r="S9" t="n">
-        <v>421.2312</v>
+        <v>357.8023</v>
       </c>
       <c r="T9" t="n">
-        <v>1.3192</v>
+        <v>19.0479</v>
       </c>
       <c r="U9" t="n">
-        <v>1317.3359</v>
+        <v>2606.6245</v>
       </c>
       <c r="V9" t="n">
-        <v>405.8297</v>
+        <v>1250.4398</v>
       </c>
       <c r="W9" t="n">
-        <v>18.9429</v>
+        <v>9.1348</v>
       </c>
       <c r="X9" t="n">
-        <v>1056.5541</v>
+        <v>2655.8271</v>
       </c>
       <c r="Y9" t="n">
-        <v>69.59229999999999</v>
+        <v>24.6365</v>
       </c>
       <c r="Z9" t="n">
-        <v>223.352</v>
+        <v>432.9712</v>
       </c>
       <c r="AA9" t="n">
-        <v>1368.4413</v>
+        <v>3122.5696</v>
       </c>
       <c r="AB9" t="n">
-        <v>31.4157</v>
+        <v>10.4998</v>
       </c>
       <c r="AC9" t="n">
-        <v>56.5084</v>
+        <v>123.5035</v>
       </c>
       <c r="AD9" t="n">
-        <v>11033.8955</v>
+        <v>13786.0279</v>
       </c>
       <c r="AE9" t="n">
-        <v>22240.0012</v>
+        <v>36630.6826</v>
       </c>
       <c r="AF9" t="inlineStr"/>
       <c r="AG9" t="n">
-        <v>509.3239</v>
+        <v>85.0733</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
+          <t>2018年</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>221.8186</v>
+        <v>156.5224</v>
       </c>
       <c r="C10" t="n">
-        <v>1572.6916</v>
-      </c>
-      <c r="D10" t="inlineStr"/>
+        <v>1907.555</v>
+      </c>
+      <c r="D10" t="n">
+        <v>50.5295</v>
+      </c>
       <c r="E10" t="n">
-        <v>3833.9176</v>
-      </c>
-      <c r="F10" t="inlineStr"/>
+        <v>8411.2286</v>
+      </c>
+      <c r="F10" t="n">
+        <v>696.71</v>
+      </c>
       <c r="G10" t="n">
-        <v>2.7481</v>
+        <v>2.8743</v>
       </c>
       <c r="H10" t="n">
-        <v>28.335</v>
+        <v>30.9203</v>
       </c>
       <c r="I10" t="n">
-        <v>23324.631</v>
+        <v>30614.7168</v>
       </c>
       <c r="J10" t="n">
-        <v>0.08690000000000001</v>
+        <v>0.1019</v>
       </c>
       <c r="K10" t="n">
-        <v>71.41679999999999</v>
+        <v>794.1824</v>
       </c>
       <c r="L10" t="n">
-        <v>17.4342</v>
+        <v>8.1533</v>
       </c>
       <c r="M10" t="n">
-        <v>3643.5355</v>
+        <v>3645.5276</v>
       </c>
       <c r="N10" t="n">
-        <v>6.0807</v>
+        <v>210.8907</v>
       </c>
       <c r="O10" t="n">
-        <v>2480.6181</v>
+        <v>4296.9314</v>
       </c>
       <c r="P10" t="n">
-        <v>680.0272</v>
+        <v>1971.4338</v>
       </c>
       <c r="Q10" t="n">
-        <v>3905.3343</v>
+        <v>9205.410900000001</v>
       </c>
       <c r="R10" t="n">
-        <v>655.925</v>
+        <v>470.2325</v>
       </c>
       <c r="S10" t="n">
-        <v>320.284</v>
+        <v>314.5982</v>
       </c>
       <c r="T10" t="n">
-        <v>13.83</v>
+        <v>22.1965</v>
       </c>
       <c r="U10" t="n">
-        <v>1580.177</v>
+        <v>3101.0269</v>
       </c>
       <c r="V10" t="n">
-        <v>590.138</v>
+        <v>1597.2898</v>
       </c>
       <c r="W10" t="n">
-        <v>14.2521</v>
+        <v>7.1367</v>
       </c>
       <c r="X10" t="n">
-        <v>1123.1049</v>
+        <v>2610.0328</v>
       </c>
       <c r="Y10" t="n">
-        <v>19.8032</v>
+        <v>26.5986</v>
       </c>
       <c r="Z10" t="n">
-        <v>275.4275</v>
+        <v>380.6033</v>
       </c>
       <c r="AA10" t="n">
-        <v>1432.5877</v>
+        <v>3024.3714</v>
       </c>
       <c r="AB10" t="n">
-        <v>20.2693</v>
+        <v>11.1295</v>
       </c>
       <c r="AC10" t="n">
-        <v>36.1022</v>
+        <v>129.8813</v>
       </c>
       <c r="AD10" t="n">
-        <v>14207.5065</v>
+        <v>14511.1777</v>
       </c>
       <c r="AE10" t="n">
-        <v>27385.4261</v>
+        <v>38012.6751</v>
       </c>
       <c r="AF10" t="inlineStr"/>
       <c r="AG10" t="n">
-        <v>50.9605</v>
+        <v>56.2981</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2011年</t>
+          <t>2019年</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>241.62765</v>
+        <v>157.236</v>
       </c>
       <c r="C11" t="n">
-        <v>1914.85592</v>
-      </c>
-      <c r="D11" t="inlineStr"/>
+        <v>3309.1159</v>
+      </c>
+      <c r="D11" t="n">
+        <v>255.7421</v>
+      </c>
       <c r="E11" t="n">
-        <v>4777.5102</v>
+        <v>7659.6605</v>
       </c>
       <c r="F11" t="n">
-        <v>344.18366</v>
+        <v>1.5026</v>
       </c>
       <c r="G11" t="n">
-        <v>3.08205</v>
+        <v>2.6977</v>
       </c>
       <c r="H11" t="n">
-        <v>143.85233</v>
+        <v>31.3616</v>
       </c>
       <c r="I11" t="n">
-        <v>29530.13827</v>
+        <v>27652.4328</v>
       </c>
       <c r="J11" t="n">
-        <v>0.07964</v>
+        <v>0.0776</v>
       </c>
       <c r="K11" t="n">
-        <v>44.88997</v>
+        <v>422.0988</v>
       </c>
       <c r="L11" t="n">
-        <v>3.79963</v>
+        <v>9.786099999999999</v>
       </c>
       <c r="M11" t="n">
-        <v>4600.52395</v>
+        <v>3568.5325</v>
       </c>
       <c r="N11" t="n">
-        <v>6.61319</v>
+        <v>1051.2311</v>
       </c>
       <c r="O11" t="n">
-        <v>2902.60383</v>
+        <v>7075.8331</v>
       </c>
       <c r="P11" t="n">
-        <v>739.50707</v>
+        <v>2302.5079</v>
       </c>
       <c r="Q11" t="n">
-        <v>4822.40017</v>
+        <v>8081.7593</v>
       </c>
       <c r="R11" t="n">
-        <v>636.84772</v>
+        <v>547.5396</v>
       </c>
       <c r="S11" t="n">
-        <v>371.63175</v>
-      </c>
-      <c r="T11" t="inlineStr"/>
+        <v>309.2615</v>
+      </c>
+      <c r="T11" t="n">
+        <v>21.2414</v>
+      </c>
       <c r="U11" t="n">
-        <v>2077.95058</v>
+        <v>2528.6612</v>
       </c>
       <c r="V11" t="n">
-        <v>725.28745</v>
+        <v>1649.1161</v>
       </c>
       <c r="W11" t="n">
-        <v>25.96282</v>
+        <v>6.1418</v>
       </c>
       <c r="X11" t="n">
-        <v>1338.04413</v>
+        <v>2550.4787</v>
       </c>
       <c r="Y11" t="n">
-        <v>15.23469</v>
+        <v>29.0915</v>
       </c>
       <c r="Z11" t="n">
-        <v>237.17175</v>
+        <v>175.7335</v>
       </c>
       <c r="AA11" t="n">
-        <v>1616.41339</v>
+        <v>2761.4455</v>
       </c>
       <c r="AB11" t="n">
-        <v>6.96132</v>
+        <v>12.5614</v>
       </c>
       <c r="AC11" t="n">
-        <v>28.09643</v>
+        <v>111.4784</v>
       </c>
       <c r="AD11" t="n">
-        <v>18261.0276</v>
+        <v>13030.6796</v>
       </c>
       <c r="AE11" t="n">
-        <v>34510.69268</v>
+        <v>37256.927</v>
       </c>
       <c r="AF11" t="inlineStr"/>
       <c r="AG11" t="n">
-        <v>50.86308</v>
+        <v>54.6145</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2012年</t>
+          <t>2020年</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>225.22971</v>
+        <v>112.0305</v>
       </c>
       <c r="C12" t="n">
-        <v>2038.71598</v>
-      </c>
-      <c r="D12" t="inlineStr"/>
+        <v>2803.8846</v>
+      </c>
+      <c r="D12" t="n">
+        <v>212.2863</v>
+      </c>
       <c r="E12" t="n">
-        <v>5056.42152</v>
+        <v>7535.1565</v>
       </c>
       <c r="F12" t="n">
-        <v>379.93642</v>
-      </c>
-      <c r="G12" t="n">
-        <v>4.46539</v>
-      </c>
+        <v>2.5642</v>
+      </c>
+      <c r="G12" t="inlineStr"/>
       <c r="H12" t="n">
-        <v>63.91301</v>
+        <v>35.6556</v>
       </c>
       <c r="I12" t="n">
-        <v>30107.72716</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0.08326</v>
-      </c>
+        <v>24461.435</v>
+      </c>
+      <c r="J12" t="inlineStr"/>
       <c r="K12" t="n">
-        <v>57.49097</v>
-      </c>
-      <c r="L12" t="n">
-        <v>8.460520000000001</v>
-      </c>
+        <v>277.7979</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
       <c r="M12" t="n">
-        <v>4849.80428</v>
+        <v>2927.1888</v>
       </c>
       <c r="N12" t="n">
-        <v>5.37264</v>
+        <v>1298.3247</v>
       </c>
       <c r="O12" t="n">
-        <v>2977.86034</v>
+        <v>6852.5237</v>
       </c>
       <c r="P12" t="n">
-        <v>708.54201</v>
+        <v>2425.9976</v>
       </c>
       <c r="Q12" t="n">
-        <v>5113.91249</v>
+        <v>7812.9544</v>
       </c>
       <c r="R12" t="n">
-        <v>691.61086</v>
+        <v>513.6599</v>
       </c>
       <c r="S12" t="n">
-        <v>377.47298</v>
+        <v>294.3652</v>
       </c>
       <c r="T12" t="n">
-        <v>7.77719</v>
+        <v>19.9314</v>
       </c>
       <c r="U12" t="n">
-        <v>2376.48913</v>
+        <v>2589.9774</v>
       </c>
       <c r="V12" t="n">
-        <v>919.69168</v>
+        <v>1759.4567</v>
       </c>
       <c r="W12" t="n">
-        <v>21.36068</v>
+        <v>6.5686</v>
       </c>
       <c r="X12" t="n">
-        <v>1461.13062</v>
+        <v>2807.1138</v>
       </c>
       <c r="Y12" t="n">
-        <v>26.87416</v>
+        <v>31.0925</v>
       </c>
       <c r="Z12" t="n">
-        <v>136.60936</v>
+        <v>215.4457</v>
       </c>
       <c r="AA12" t="n">
-        <v>1645.97482</v>
+        <v>3060.2206</v>
       </c>
       <c r="AB12" t="n">
-        <v>13.00917</v>
+        <v>12.5385</v>
       </c>
       <c r="AC12" t="n">
-        <v>122.96027</v>
+        <v>136.4074</v>
       </c>
       <c r="AD12" t="n">
-        <v>18232.36823</v>
+        <v>10430.7784</v>
       </c>
       <c r="AE12" t="n">
-        <v>35462.07663</v>
+        <v>33903.9363</v>
       </c>
       <c r="AF12" t="inlineStr"/>
       <c r="AG12" t="n">
-        <v>65.78489</v>
+        <v>45.6912</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2013年</t>
+          <t>2021年</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>255.8747</v>
+        <v>106.7545</v>
       </c>
       <c r="C13" t="n">
-        <v>2113.1897</v>
+        <v>3239.1022</v>
       </c>
       <c r="D13" t="n">
-        <v>0.2451</v>
+        <v>267.3708</v>
       </c>
       <c r="E13" t="n">
-        <v>5790.2901</v>
+        <v>7830.7203</v>
       </c>
       <c r="F13" t="n">
-        <v>239.1427</v>
-      </c>
-      <c r="G13" t="n">
-        <v>3.7282</v>
-      </c>
+        <v>2.7175</v>
+      </c>
+      <c r="G13" t="inlineStr"/>
       <c r="H13" t="n">
-        <v>55.5938</v>
+        <v>37.0235</v>
       </c>
       <c r="I13" t="n">
-        <v>32368.031</v>
-      </c>
-      <c r="J13" t="n">
-        <v>0.09180000000000001</v>
-      </c>
+        <v>25852.871</v>
+      </c>
+      <c r="J13" t="inlineStr"/>
       <c r="K13" t="n">
-        <v>90.8451</v>
-      </c>
-      <c r="L13" t="n">
-        <v>8.6525</v>
-      </c>
+        <v>224.3153</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
       <c r="M13" t="n">
-        <v>5110.2501</v>
+        <v>3274.6834</v>
       </c>
       <c r="N13" t="n">
-        <v>2.0587</v>
+        <v>2718.0557</v>
       </c>
       <c r="O13" t="n">
-        <v>3118.828</v>
+        <v>9544.4894</v>
       </c>
       <c r="P13" t="n">
-        <v>747.4598</v>
+        <v>3213.2063</v>
       </c>
       <c r="Q13" t="n">
-        <v>5881.1352</v>
+        <v>8055.0356</v>
       </c>
       <c r="R13" t="n">
-        <v>802.2433</v>
+        <v>529.6757</v>
       </c>
       <c r="S13" t="n">
-        <v>423.5732</v>
+        <v>271.7658</v>
       </c>
       <c r="T13" t="n">
-        <v>21.6927</v>
+        <v>138.5036</v>
       </c>
       <c r="U13" t="n">
-        <v>2520.012</v>
+        <v>3002.859</v>
       </c>
       <c r="V13" t="n">
-        <v>1033.3602</v>
+        <v>2060.1965</v>
       </c>
       <c r="W13" t="n">
-        <v>22.5791</v>
+        <v>5.4892</v>
       </c>
       <c r="X13" t="n">
-        <v>1679.6867</v>
+        <v>3211.8039</v>
       </c>
       <c r="Y13" t="n">
-        <v>26.2511</v>
+        <v>37.6711</v>
       </c>
       <c r="Z13" t="n">
-        <v>373.9121</v>
+        <v>253.4351</v>
       </c>
       <c r="AA13" t="n">
-        <v>2102.429</v>
+        <v>3508.3993</v>
       </c>
       <c r="AB13" t="n">
-        <v>12.4724</v>
+        <v>11.635</v>
       </c>
       <c r="AC13" t="n">
-        <v>114.9908</v>
+        <v>151.6465</v>
       </c>
       <c r="AD13" t="n">
-        <v>18985.4245</v>
+        <v>10756.6371</v>
       </c>
       <c r="AE13" t="n">
-        <v>38006.871</v>
+        <v>38400.2194</v>
       </c>
       <c r="AF13" t="inlineStr"/>
       <c r="AG13" t="n">
-        <v>105.7352</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>2014年</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>275.5756</v>
-      </c>
-      <c r="C14" t="n">
-        <v>2109.3929</v>
-      </c>
-      <c r="D14" t="n">
-        <v>0.312</v>
-      </c>
-      <c r="E14" t="n">
-        <v>5730.2497</v>
-      </c>
-      <c r="F14" t="n">
-        <v>338.5201</v>
-      </c>
-      <c r="G14" t="n">
-        <v>3.2074</v>
-      </c>
-      <c r="H14" t="n">
-        <v>54.4541</v>
-      </c>
-      <c r="I14" t="n">
-        <v>31775.6055</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0.0814</v>
-      </c>
-      <c r="K14" t="n">
-        <v>80.8386</v>
-      </c>
-      <c r="L14" t="n">
-        <v>6.0226</v>
-      </c>
-      <c r="M14" t="n">
-        <v>4630.299</v>
-      </c>
-      <c r="N14" t="n">
-        <v>2.3856</v>
-      </c>
-      <c r="O14" t="n">
-        <v>3244.3037</v>
-      </c>
-      <c r="P14" t="n">
-        <v>856.6376</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>5811.0883</v>
-      </c>
-      <c r="R14" t="n">
-        <v>420.3</v>
-      </c>
-      <c r="S14" t="n">
-        <v>449.9363</v>
-      </c>
-      <c r="T14" t="n">
-        <v>20.7072</v>
-      </c>
-      <c r="U14" t="n">
-        <v>2320.6987</v>
-      </c>
-      <c r="V14" t="n">
-        <v>1091.235</v>
-      </c>
-      <c r="W14" t="n">
-        <v>23.1376</v>
-      </c>
-      <c r="X14" t="n">
-        <v>2079.7962</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>36.3769</v>
-      </c>
-      <c r="Z14" t="n">
-        <v>400.7607</v>
-      </c>
-      <c r="AA14" t="n">
-        <v>2540.0714</v>
-      </c>
-      <c r="AB14" t="n">
-        <v>9.311400000000001</v>
-      </c>
-      <c r="AC14" t="n">
-        <v>123.7698</v>
-      </c>
-      <c r="AD14" t="n">
-        <v>18513.2129</v>
-      </c>
-      <c r="AE14" t="n">
-        <v>37340.6078</v>
-      </c>
-      <c r="AF14" t="inlineStr"/>
-      <c r="AG14" t="n">
-        <v>93.3986</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>2015年</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>177.7493</v>
-      </c>
-      <c r="C15" t="n">
-        <v>1879.7547</v>
-      </c>
-      <c r="D15" t="n">
-        <v>1.7766</v>
-      </c>
-      <c r="E15" t="n">
-        <v>6183.2981</v>
-      </c>
-      <c r="F15" t="n">
-        <v>421.448</v>
-      </c>
-      <c r="G15" t="n">
-        <v>3.4023</v>
-      </c>
-      <c r="H15" t="n">
-        <v>66.6232</v>
-      </c>
-      <c r="I15" t="n">
-        <v>29195.9922</v>
-      </c>
-      <c r="J15" t="n">
-        <v>0.08359999999999999</v>
-      </c>
-      <c r="K15" t="n">
-        <v>68.3554</v>
-      </c>
-      <c r="L15" t="n">
-        <v>5.4556</v>
-      </c>
-      <c r="M15" t="n">
-        <v>4174.9642</v>
-      </c>
-      <c r="N15" t="n">
-        <v>53.9304</v>
-      </c>
-      <c r="O15" t="n">
-        <v>3607.1761</v>
-      </c>
-      <c r="P15" t="n">
-        <v>1493.9651</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>6251.6534</v>
-      </c>
-      <c r="R15" t="n">
-        <v>444.1895</v>
-      </c>
-      <c r="S15" t="n">
-        <v>446.7733</v>
-      </c>
-      <c r="T15" t="n">
-        <v>23.8763</v>
-      </c>
-      <c r="U15" t="n">
-        <v>2597.2331</v>
-      </c>
-      <c r="V15" t="n">
-        <v>1260.946</v>
-      </c>
-      <c r="W15" t="n">
-        <v>22.7498</v>
-      </c>
-      <c r="X15" t="n">
-        <v>1944.68</v>
-      </c>
-      <c r="Y15" t="n">
-        <v>42.691</v>
-      </c>
-      <c r="Z15" t="n">
-        <v>400.6767</v>
-      </c>
-      <c r="AA15" t="n">
-        <v>2410.7975</v>
-      </c>
-      <c r="AB15" t="n">
-        <v>8.9415</v>
-      </c>
-      <c r="AC15" t="n">
-        <v>112.1631</v>
-      </c>
-      <c r="AD15" t="n">
-        <v>16073.2639</v>
-      </c>
-      <c r="AE15" t="n">
-        <v>35400.4014</v>
-      </c>
-      <c r="AF15" t="inlineStr"/>
-      <c r="AG15" t="n">
-        <v>97.5855</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>2016年</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>173.1971</v>
-      </c>
-      <c r="C16" t="n">
-        <v>1813.1951</v>
-      </c>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="n">
-        <v>6566.5205</v>
-      </c>
-      <c r="F16" t="n">
-        <v>492.2199</v>
-      </c>
-      <c r="G16" t="n">
-        <v>2.7542</v>
-      </c>
-      <c r="H16" t="n">
-        <v>54.2483</v>
-      </c>
-      <c r="I16" t="n">
-        <v>29514.6257</v>
-      </c>
-      <c r="J16" t="n">
-        <v>0.09320000000000001</v>
-      </c>
-      <c r="K16" t="n">
-        <v>690.3049999999999</v>
-      </c>
-      <c r="L16" t="n">
-        <v>6.6565</v>
-      </c>
-      <c r="M16" t="n">
-        <v>3902.7514</v>
-      </c>
-      <c r="N16" t="n">
-        <v>72.74079999999999</v>
-      </c>
-      <c r="O16" t="n">
-        <v>3743.4</v>
-      </c>
-      <c r="P16" t="n">
-        <v>1684.267</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>7256.8255</v>
-      </c>
-      <c r="R16" t="n">
-        <v>417.4723</v>
-      </c>
-      <c r="S16" t="n">
-        <v>451.3475</v>
-      </c>
-      <c r="T16" t="n">
-        <v>22.6138</v>
-      </c>
-      <c r="U16" t="n">
-        <v>2664.8679</v>
-      </c>
-      <c r="V16" t="n">
-        <v>1281.2144</v>
-      </c>
-      <c r="W16" t="n">
-        <v>21.5338</v>
-      </c>
-      <c r="X16" t="n">
-        <v>2079.1077</v>
-      </c>
-      <c r="Y16" t="n">
-        <v>37.6447</v>
-      </c>
-      <c r="Z16" t="n">
-        <v>420.3869</v>
-      </c>
-      <c r="AA16" t="n">
-        <v>2558.673</v>
-      </c>
-      <c r="AB16" t="n">
-        <v>9.5039</v>
-      </c>
-      <c r="AC16" t="n">
-        <v>113.5253</v>
-      </c>
-      <c r="AD16" t="n">
-        <v>15520.7489</v>
-      </c>
-      <c r="AE16" t="n">
-        <v>35922.8936</v>
-      </c>
-      <c r="AF16" t="inlineStr"/>
-      <c r="AG16" t="n">
-        <v>98.3494</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>2017年</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>115.2938</v>
-      </c>
-      <c r="C17" t="n">
-        <v>1879.7431</v>
-      </c>
-      <c r="D17" t="n">
-        <v>9.6898</v>
-      </c>
-      <c r="E17" t="n">
-        <v>7553.8022</v>
-      </c>
-      <c r="F17" t="n">
-        <v>534.5282999999999</v>
-      </c>
-      <c r="G17" t="n">
-        <v>3.035</v>
-      </c>
-      <c r="H17" t="n">
-        <v>57.3375</v>
-      </c>
-      <c r="I17" t="n">
-        <v>29323.8244</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0.0973</v>
-      </c>
-      <c r="K17" t="n">
-        <v>749.1019</v>
-      </c>
-      <c r="L17" t="n">
-        <v>7.3674</v>
-      </c>
-      <c r="M17" t="n">
-        <v>3835.9086</v>
-      </c>
-      <c r="N17" t="n">
-        <v>75.7243</v>
-      </c>
-      <c r="O17" t="n">
-        <v>3698.6137</v>
-      </c>
-      <c r="P17" t="n">
-        <v>1618.1627</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>8302.9041</v>
-      </c>
-      <c r="R17" t="n">
-        <v>444.8063</v>
-      </c>
-      <c r="S17" t="n">
-        <v>357.8023</v>
-      </c>
-      <c r="T17" t="n">
-        <v>19.0479</v>
-      </c>
-      <c r="U17" t="n">
-        <v>2606.6245</v>
-      </c>
-      <c r="V17" t="n">
-        <v>1250.4398</v>
-      </c>
-      <c r="W17" t="n">
-        <v>9.1348</v>
-      </c>
-      <c r="X17" t="n">
-        <v>2655.8271</v>
-      </c>
-      <c r="Y17" t="n">
-        <v>24.6365</v>
-      </c>
-      <c r="Z17" t="n">
-        <v>432.9712</v>
-      </c>
-      <c r="AA17" t="n">
-        <v>3122.5696</v>
-      </c>
-      <c r="AB17" t="n">
-        <v>10.4998</v>
-      </c>
-      <c r="AC17" t="n">
-        <v>123.5035</v>
-      </c>
-      <c r="AD17" t="n">
-        <v>13786.0279</v>
-      </c>
-      <c r="AE17" t="n">
-        <v>36630.6826</v>
-      </c>
-      <c r="AF17" t="inlineStr"/>
-      <c r="AG17" t="n">
-        <v>85.0733</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>2018年</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>156.5224</v>
-      </c>
-      <c r="C18" t="n">
-        <v>1907.555</v>
-      </c>
-      <c r="D18" t="n">
-        <v>50.5295</v>
-      </c>
-      <c r="E18" t="n">
-        <v>8411.2286</v>
-      </c>
-      <c r="F18" t="n">
-        <v>696.71</v>
-      </c>
-      <c r="G18" t="n">
-        <v>2.8743</v>
-      </c>
-      <c r="H18" t="n">
-        <v>30.9203</v>
-      </c>
-      <c r="I18" t="n">
-        <v>30614.7168</v>
-      </c>
-      <c r="J18" t="n">
-        <v>0.1019</v>
-      </c>
-      <c r="K18" t="n">
-        <v>794.1824</v>
-      </c>
-      <c r="L18" t="n">
-        <v>8.1533</v>
-      </c>
-      <c r="M18" t="n">
-        <v>3645.5276</v>
-      </c>
-      <c r="N18" t="n">
-        <v>210.8907</v>
-      </c>
-      <c r="O18" t="n">
-        <v>4296.9314</v>
-      </c>
-      <c r="P18" t="n">
-        <v>1971.4338</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>9205.410900000001</v>
-      </c>
-      <c r="R18" t="n">
-        <v>470.2325</v>
-      </c>
-      <c r="S18" t="n">
-        <v>314.5982</v>
-      </c>
-      <c r="T18" t="n">
-        <v>22.1965</v>
-      </c>
-      <c r="U18" t="n">
-        <v>3101.0269</v>
-      </c>
-      <c r="V18" t="n">
-        <v>1597.2898</v>
-      </c>
-      <c r="W18" t="n">
-        <v>7.1367</v>
-      </c>
-      <c r="X18" t="n">
-        <v>2610.0328</v>
-      </c>
-      <c r="Y18" t="n">
-        <v>26.5986</v>
-      </c>
-      <c r="Z18" t="n">
-        <v>380.6033</v>
-      </c>
-      <c r="AA18" t="n">
-        <v>3024.3714</v>
-      </c>
-      <c r="AB18" t="n">
-        <v>11.1295</v>
-      </c>
-      <c r="AC18" t="n">
-        <v>129.8813</v>
-      </c>
-      <c r="AD18" t="n">
-        <v>14511.1777</v>
-      </c>
-      <c r="AE18" t="n">
-        <v>38012.6751</v>
-      </c>
-      <c r="AF18" t="inlineStr"/>
-      <c r="AG18" t="n">
-        <v>56.2981</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>2019年</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>157.236</v>
-      </c>
-      <c r="C19" t="n">
-        <v>3309.1159</v>
-      </c>
-      <c r="D19" t="n">
-        <v>255.7421</v>
-      </c>
-      <c r="E19" t="n">
-        <v>7659.6605</v>
-      </c>
-      <c r="F19" t="n">
-        <v>1.5026</v>
-      </c>
-      <c r="G19" t="n">
-        <v>2.6977</v>
-      </c>
-      <c r="H19" t="n">
-        <v>31.3616</v>
-      </c>
-      <c r="I19" t="n">
-        <v>27652.4328</v>
-      </c>
-      <c r="J19" t="n">
-        <v>0.0776</v>
-      </c>
-      <c r="K19" t="n">
-        <v>422.0988</v>
-      </c>
-      <c r="L19" t="n">
-        <v>9.786099999999999</v>
-      </c>
-      <c r="M19" t="n">
-        <v>3568.5325</v>
-      </c>
-      <c r="N19" t="n">
-        <v>1051.2311</v>
-      </c>
-      <c r="O19" t="n">
-        <v>7075.8331</v>
-      </c>
-      <c r="P19" t="n">
-        <v>2302.5079</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>8081.7593</v>
-      </c>
-      <c r="R19" t="n">
-        <v>547.5396</v>
-      </c>
-      <c r="S19" t="n">
-        <v>309.2615</v>
-      </c>
-      <c r="T19" t="n">
-        <v>21.2414</v>
-      </c>
-      <c r="U19" t="n">
-        <v>2528.6612</v>
-      </c>
-      <c r="V19" t="n">
-        <v>1649.1161</v>
-      </c>
-      <c r="W19" t="n">
-        <v>6.1418</v>
-      </c>
-      <c r="X19" t="n">
-        <v>2550.4787</v>
-      </c>
-      <c r="Y19" t="n">
-        <v>29.0915</v>
-      </c>
-      <c r="Z19" t="n">
-        <v>175.7335</v>
-      </c>
-      <c r="AA19" t="n">
-        <v>2761.4455</v>
-      </c>
-      <c r="AB19" t="n">
-        <v>12.5614</v>
-      </c>
-      <c r="AC19" t="n">
-        <v>111.4784</v>
-      </c>
-      <c r="AD19" t="n">
-        <v>13030.6796</v>
-      </c>
-      <c r="AE19" t="n">
-        <v>37256.927</v>
-      </c>
-      <c r="AF19" t="inlineStr"/>
-      <c r="AG19" t="n">
-        <v>54.6145</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>2020年</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>112.0305</v>
-      </c>
-      <c r="C20" t="n">
-        <v>2803.8846</v>
-      </c>
-      <c r="D20" t="n">
-        <v>212.2863</v>
-      </c>
-      <c r="E20" t="n">
-        <v>7535.1565</v>
-      </c>
-      <c r="F20" t="n">
-        <v>2.5642</v>
-      </c>
-      <c r="G20" t="inlineStr"/>
-      <c r="H20" t="n">
-        <v>35.6556</v>
-      </c>
-      <c r="I20" t="n">
-        <v>24461.435</v>
-      </c>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="n">
-        <v>277.7979</v>
-      </c>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
-        <v>2927.1888</v>
-      </c>
-      <c r="N20" t="n">
-        <v>1298.3247</v>
-      </c>
-      <c r="O20" t="n">
-        <v>6852.5237</v>
-      </c>
-      <c r="P20" t="n">
-        <v>2425.9976</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>7812.9544</v>
-      </c>
-      <c r="R20" t="n">
-        <v>513.6599</v>
-      </c>
-      <c r="S20" t="n">
-        <v>294.3652</v>
-      </c>
-      <c r="T20" t="n">
-        <v>19.9314</v>
-      </c>
-      <c r="U20" t="n">
-        <v>2589.9774</v>
-      </c>
-      <c r="V20" t="n">
-        <v>1759.4567</v>
-      </c>
-      <c r="W20" t="n">
-        <v>6.5686</v>
-      </c>
-      <c r="X20" t="n">
-        <v>2807.1138</v>
-      </c>
-      <c r="Y20" t="n">
-        <v>31.0925</v>
-      </c>
-      <c r="Z20" t="n">
-        <v>215.4457</v>
-      </c>
-      <c r="AA20" t="n">
-        <v>3060.2206</v>
-      </c>
-      <c r="AB20" t="n">
-        <v>12.5385</v>
-      </c>
-      <c r="AC20" t="n">
-        <v>136.4074</v>
-      </c>
-      <c r="AD20" t="n">
-        <v>10430.7784</v>
-      </c>
-      <c r="AE20" t="n">
-        <v>33903.9363</v>
-      </c>
-      <c r="AF20" t="inlineStr"/>
-      <c r="AG20" t="n">
-        <v>45.6912</v>
+        <v>57.8106</v>
       </c>
     </row>
   </sheetData>
